--- a/my-excel-test/src/main/resources/excel/data-test-01.xlsx
+++ b/my-excel-test/src/main/resources/excel/data-test-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\my-excel\my-excel-test\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE4C80-1FE5-4FB4-9F4F-E08FF732DB07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6833F169-04F0-455A-80D5-8C0A605B7BC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
   </si>
@@ -34,18 +34,42 @@
   </si>
   <si>
     <t>庄伟斌</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>王五</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,12 +95,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,42 +418,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35"/>
   <cols>
-    <col min="3" max="3" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.17578125" customWidth="1"/>
+    <col min="2" max="2" width="8.76171875" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>18</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>44299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
